--- a/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -814,7 +814,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>

--- a/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -835,7 +835,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1815,15 +1815,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1834,27 +1834,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -570,7 +570,7 @@
     <t>Type of a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -609,7 +609,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -725,7 +725,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1260,7 +1260,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1339,7 +1339,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1427,7 +1427,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1473,7 +1473,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
